--- a/springboot-offer-master/src/main/resources/static/excel/GPA_Convert_Template.xlsx
+++ b/springboot-offer-master/src/main/resources/static/excel/GPA_Convert_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windwos10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\java_projects\SEDP\springboot-offer-master\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7784FFF-1625-4FC6-A778-EFCB02875C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47D2903-F9BE-462C-8465-121CE95C75AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="2652" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,11 +31,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grade (A - D)</t>
+    <t>Credits</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Credits</t>
+    <t>Grade (A - F)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -379,10 +379,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/springboot-offer-master/src/main/resources/static/excel/GPA_Convert_Template.xlsx
+++ b/springboot-offer-master/src/main/resources/static/excel/GPA_Convert_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\java_projects\SEDP\springboot-offer-master\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47D2903-F9BE-462C-8465-121CE95C75AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773825E1-4E6E-4A7A-9284-51CFCE76010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8772" yWindow="5232" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Grade (A - F)</t>
+    <t>Grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/springboot-offer-master/src/main/resources/static/excel/GPA_Convert_Template.xlsx
+++ b/springboot-offer-master/src/main/resources/static/excel/GPA_Convert_Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\java_projects\SEDP\springboot-offer-master\src\main\resources\static\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\windwos10\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773825E1-4E6E-4A7A-9284-51CFCE76010D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8AEEBB-8A96-4667-BD2B-DD8A41A6C605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8772" yWindow="5232" windowWidth="17280" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,13 +58,34 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -79,8 +100,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -364,24 +391,24 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5546875" customWidth="1"/>
+    <col min="1" max="1" width="36.109375" customWidth="1"/>
     <col min="2" max="2" width="25.5546875" customWidth="1"/>
     <col min="3" max="3" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="35.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
